--- a/cpm_count_tables_MiNND_batch1_30Oct2023.xlsx
+++ b/cpm_count_tables_MiNND_batch1_30Oct2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Research\CPG\MiNND project\Center Grant\Batch 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duhea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6876"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="cpm_count_tables_MiNND_batch1_3" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +301,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,24 +486,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -661,12 +649,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -991,16 +978,16 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1077,17 +1064,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2.6917506125742801</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0.31556949417280999</v>
       </c>
       <c r="E2">
@@ -1154,20 +1141,20 @@
         <v>1.5803696103760601</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>238.66855431491899</v>
       </c>
       <c r="D3">
         <v>207.960296659882</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>69.570492222599697</v>
       </c>
       <c r="F3">
@@ -1231,14 +1218,14 @@
         <v>237.394092187204</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>11.9475948242332</v>
       </c>
       <c r="D4">
@@ -1247,7 +1234,7 @@
       <c r="E4">
         <v>8.8705545639015995</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>1.27034179129015</v>
       </c>
       <c r="G4">
@@ -1308,14 +1295,14 @@
         <v>12.5865151112093</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>31.687099316444598</v>
       </c>
       <c r="D5">
@@ -1327,7 +1314,7 @@
       <c r="F5">
         <v>36.121892674076499</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>42.221161652626002</v>
       </c>
       <c r="H5">
@@ -1385,14 +1372,14 @@
         <v>35.501874461662197</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>49.348761230528403</v>
       </c>
       <c r="D6">
@@ -1407,7 +1394,7 @@
       <c r="G6">
         <v>48.333260002749398</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>20.772827463106001</v>
       </c>
       <c r="I6">
@@ -1462,14 +1449,14 @@
         <v>51.926430055213402</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>29.3731382635298</v>
       </c>
       <c r="D7">
@@ -1487,7 +1474,7 @@
       <c r="H7">
         <v>26.667819040473901</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>24.027871867600599</v>
       </c>
       <c r="J7">
@@ -1539,14 +1526,14 @@
         <v>29.2368377919571</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>33.198257555082698</v>
       </c>
       <c r="D8">
@@ -1567,7 +1554,7 @@
       <c r="I8">
         <v>21.9666573691545</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>19.1863658408619</v>
       </c>
       <c r="K8">
@@ -1616,14 +1603,14 @@
         <v>38.775497226012597</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>97.422482697205794</v>
       </c>
       <c r="D9">
@@ -1647,7 +1634,7 @@
       <c r="J9">
         <v>87.180153557600804</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>80.037376294972304</v>
       </c>
       <c r="L9">
@@ -1693,14 +1680,14 @@
         <v>92.508063978798702</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>45.523641938975501</v>
       </c>
       <c r="D10">
@@ -1727,7 +1714,7 @@
       <c r="K10">
         <v>43.9559159094268</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>58.448575026168498</v>
       </c>
       <c r="M10">
@@ -1770,14 +1757,14 @@
         <v>48.483481975465601</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1.3222634588084199</v>
       </c>
       <c r="D11">
@@ -1807,7 +1794,7 @@
       <c r="L11">
         <v>1.7355419787463799</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>0.44414129968064298</v>
       </c>
       <c r="N11">
@@ -1847,14 +1834,14 @@
         <v>1.0723936641837599</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>117.728671528907</v>
       </c>
       <c r="D12">
@@ -1887,7 +1874,7 @@
       <c r="M12">
         <v>96.212109043319202</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="1">
         <v>106.129702916341</v>
       </c>
       <c r="O12">
@@ -1924,14 +1911,14 @@
         <v>139.467618115687</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>1.79450040838285</v>
       </c>
       <c r="D13">
@@ -1967,7 +1954,7 @@
       <c r="N13">
         <v>0.79475007944264597</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="1">
         <v>0.71328398119856196</v>
       </c>
       <c r="P13">
@@ -2001,14 +1988,14 @@
         <v>2.2576708719658001</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>51.143261638911298</v>
       </c>
       <c r="D14">
@@ -2047,7 +2034,7 @@
       <c r="O14">
         <v>39.325723496747401</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="1">
         <v>36.209027538960797</v>
       </c>
       <c r="Q14">
@@ -2078,14 +2065,14 @@
         <v>50.063851585841697</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>6.1390803444676498</v>
       </c>
       <c r="D15">
@@ -2127,7 +2114,7 @@
       <c r="P15">
         <v>5.4458377418596999</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="1">
         <v>8.4147731838829305</v>
       </c>
       <c r="R15">
@@ -2155,14 +2142,14 @@
         <v>4.7975506029273296</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>1.0861449840212001</v>
       </c>
       <c r="D16">
@@ -2207,7 +2194,7 @@
       <c r="Q16">
         <v>0.39008882309391102</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="1">
         <v>1.3911139271459501</v>
       </c>
       <c r="S16">
@@ -2232,14 +2219,14 @@
         <v>2.31411264376495</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>68.285462908463202</v>
       </c>
       <c r="D17">
@@ -2287,7 +2274,7 @@
       <c r="R17">
         <v>60.642262675954797</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="1">
         <v>41.282090441567497</v>
       </c>
       <c r="T17">
@@ -2309,14 +2296,14 @@
         <v>60.449137596884299</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>118.48425064822599</v>
       </c>
       <c r="D18">
@@ -2367,7 +2354,7 @@
       <c r="S18">
         <v>145.161521540135</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="1">
         <v>135.507213423096</v>
       </c>
       <c r="U18">
@@ -2386,14 +2373,14 @@
         <v>136.75841306932799</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>106.53665582399201</v>
       </c>
       <c r="D19">
@@ -2447,7 +2434,7 @@
       <c r="T19">
         <v>94.710379773295799</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="1">
         <v>77.119952836162</v>
       </c>
       <c r="V19">
@@ -2463,14 +2450,14 @@
         <v>119.543672670589</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>219.54295785715499</v>
       </c>
       <c r="D20">
@@ -2527,7 +2514,7 @@
       <c r="U20">
         <v>271.145582521314</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="1">
         <v>214.046116582579</v>
       </c>
       <c r="W20">
@@ -2540,14 +2527,14 @@
         <v>216.679961936918</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>6.5640935990846403</v>
       </c>
       <c r="D21">
@@ -2607,7 +2594,7 @@
       <c r="V21">
         <v>4.4704702711482804</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="1">
         <v>6.7465192597406096</v>
       </c>
       <c r="X21">
@@ -2617,14 +2604,14 @@
         <v>7.8454062800811597</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>199.85067705990099</v>
       </c>
       <c r="D22">
@@ -2687,21 +2674,21 @@
       <c r="W22">
         <v>192.02280443036699</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="1">
         <v>88.7543081541032</v>
       </c>
       <c r="Y22">
         <v>198.95724559198601</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>84.058177024249304</v>
       </c>
       <c r="D23">
@@ -2767,7 +2754,7 @@
       <c r="X23">
         <v>113.287195159578</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23" s="1">
         <v>52.208638914209203</v>
       </c>
     </row>
